--- a/biology/Botanique/Chrysococcaceae/Chrysococcaceae.xlsx
+++ b/biology/Botanique/Chrysococcaceae/Chrysococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chrysococcaceae sont une famille d'algues de l'embranchement des Ochrophyta, de la classe des Chrysophyceae et de l'ordre des Chromulinales.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Chrysococcaceae est attribuée, en 1899, au botaniste allemand Ernst Lemmermann (1867–1915)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Chrysococcaceae est attribuée, en 1899, au botaniste allemand Ernst Lemmermann (1867–1915).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Chrysococcus, dérivé du grec χρυσός / khrusos, « couleur or », et "-cocc", « en rapport avec une graine, une baie ou un fruit », littéralement « baie dorée ».
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces du genre type Chrysococcus sont des organismes unicellulaires planctoniques dont les cellules sont entourées d'une lorique, c'est-à-dire une enveloppe externe, dont la structure caractérise les différentes espèces[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces du genre type Chrysococcus sont des organismes unicellulaires planctoniques dont les cellules sont entourées d'une lorique, c'est-à-dire une enveloppe externe, dont la structure caractérise les différentes espèces.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (22 janvier 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (22 janvier 2022) :
 Angulochrysis Lackey
 Calycomonas Lohmann
 Chrysococcocystis Doflein
